--- a/01 - TRAVAIL/00 - Suivi/SPER.xlsx
+++ b/01 - TRAVAIL/00 - Suivi/SPER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Études\POLYTECH\5A\PRI\01 - TRAVAIL\00 - Suivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3A85E6-4222-4365-8C16-0120A2F3DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF59C9B-7728-4FE0-8328-045636AB0149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,349 +1004,35 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1369,1722 +1055,6 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top/>
         <bottom style="medium">
           <color indexed="64"/>
@@ -3119,394 +1089,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3541,6 +1123,26 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3576,48 +1178,17 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -3649,394 +1220,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -4071,83 +1254,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -4179,394 +1293,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -4601,83 +1327,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -4709,394 +1366,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -5131,83 +1400,14 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -5239,394 +1439,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -5661,82 +1473,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        <top/>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -5769,7 +1512,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
@@ -5784,6 +1527,356 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5814,7 +1907,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
         <top style="thin">
@@ -5832,33 +1925,29 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -5920,8 +2009,21 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -5949,6 +2051,34 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6010,35 +2140,18 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        <top/>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -6100,8 +2213,37 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6128,6 +2270,180 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6191,6 +2507,40 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -6210,6 +2560,3656 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -9558,32 +9558,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{440A3744-8D5A-46F5-AA97-C9B422BD0D1F}" name="Septembre" displayName="Septembre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="162" dataDxfId="160" headerRowBorderDxfId="161" tableBorderDxfId="159">
   <autoFilter ref="B1:M20" xr:uid="{440A3744-8D5A-46F5-AA97-C9B422BD0D1F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{97048463-914E-4E71-899C-76482CCB2C44}" name="Tâche" totalsRowLabel="Total" dataDxfId="158" totalsRowDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{4BFBC204-AA89-4602-9E59-84856EE959ED}" name="Qui" dataDxfId="157" totalsRowDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{76B9C57E-5ECA-4A3D-93E1-B8FFF04F5B11}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="156" totalsRowDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{BEC0BCD5-FE1D-4FC8-8269-940A08E66084}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="155" totalsRowDxfId="78"/>
-    <tableColumn id="10" xr3:uid="{11D169F4-5914-4E75-A26C-2FEF6011DC9D}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="154" totalsRowDxfId="77">
+    <tableColumn id="1" xr3:uid="{97048463-914E-4E71-899C-76482CCB2C44}" name="Tâche" totalsRowLabel="Total" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="11" xr3:uid="{4BFBC204-AA89-4602-9E59-84856EE959ED}" name="Qui" dataDxfId="156" totalsRowDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{76B9C57E-5ECA-4A3D-93E1-B8FFF04F5B11}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="154" totalsRowDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{BEC0BCD5-FE1D-4FC8-8269-940A08E66084}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="10" xr3:uid="{11D169F4-5914-4E75-A26C-2FEF6011DC9D}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149">
       <calculatedColumnFormula>Septembre[[#This Row],[Temps Passé Période (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{67127178-B079-4D11-8494-79BD60908F36}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="153" totalsRowDxfId="76">
+    <tableColumn id="4" xr3:uid="{67127178-B079-4D11-8494-79BD60908F36}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147">
       <calculatedColumnFormula>MAX(Septembre[[#This Row],[Charge Initiale (h)]]-Septembre[[#This Row],[Temps Passé Cumul (h)]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C9A1B790-E893-4A05-A3AF-41AF5BA0EDD9}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="152" totalsRowDxfId="75">
+    <tableColumn id="5" xr3:uid="{C9A1B790-E893-4A05-A3AF-41AF5BA0EDD9}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145">
       <calculatedColumnFormula>Septembre[[#This Row],[Temps Passé Cumul (h)]]+Septembre[[#This Row],[Reste à Passer (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C58085A2-2576-4177-8B55-94D78BE58A38}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="151" totalsRowDxfId="74">
+    <tableColumn id="6" xr3:uid="{C58085A2-2576-4177-8B55-94D78BE58A38}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143">
       <calculatedColumnFormula>Septembre[[#This Row],[Charge Initiale (h)]]-Septembre[[#This Row],[Charge Révisée (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D12D9132-08E2-4999-9183-12EA949645C0}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="73">
+    <tableColumn id="7" xr3:uid="{D12D9132-08E2-4999-9183-12EA949645C0}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="141">
       <calculatedColumnFormula>IF(Septembre[[#This Row],[Qui]]="Chef de projet","35",IF(Septembre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Septembre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Septembre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Septembre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F46F5BD8-68AA-498F-B317-2D5848E086E8}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="149" totalsRowDxfId="72">
+    <tableColumn id="9" xr3:uid="{F46F5BD8-68AA-498F-B317-2D5848E086E8}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>Septembre[[#This Row],[Charge Initiale (h)]]*Septembre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{020C3B07-B752-40E8-B385-36CA11990C0C}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="71">
+    <tableColumn id="8" xr3:uid="{020C3B07-B752-40E8-B385-36CA11990C0C}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="137">
       <calculatedColumnFormula>Septembre[[#This Row],[Charge Révisée (h)]]*Septembre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3FDEFECF-8154-4581-859B-580BE23A82CE}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="70">
+    <tableColumn id="12" xr3:uid="{3FDEFECF-8154-4581-859B-580BE23A82CE}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
       <calculatedColumnFormula>Septembre[[#This Row],[Prix de Revient Unitaire (€)]]*Septembre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9592,33 +9592,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}" name="Octobre" displayName="Octobre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}" name="Octobre" displayName="Octobre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="134" headerRowBorderDxfId="133" tableBorderDxfId="132">
   <autoFilter ref="B1:M20" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{65BD282E-39C9-49DE-8BA7-432AFCEA87AE}" name="Tâche" totalsRowLabel="Total" dataDxfId="145" totalsRowDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{29478144-3718-44A1-8FCB-38C3AF2C1B3A}" name="Qui" dataDxfId="144" totalsRowDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{BAECDE07-CEC6-4741-96A6-61169C81311D}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{638B513C-B371-41F8-A550-1FFD1A13CCC3}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="142" totalsRowDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{64CD364A-D414-4850-866B-40E75F07E74E}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="141" totalsRowDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{AA4F8F9A-8CD4-49CD-9823-A6704AF53CFA}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="140" totalsRowDxfId="62">
+    <tableColumn id="1" xr3:uid="{65BD282E-39C9-49DE-8BA7-432AFCEA87AE}" name="Tâche" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130"/>
+    <tableColumn id="11" xr3:uid="{29478144-3718-44A1-8FCB-38C3AF2C1B3A}" name="Qui" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{BAECDE07-CEC6-4741-96A6-61169C81311D}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{638B513C-B371-41F8-A550-1FFD1A13CCC3}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{64CD364A-D414-4850-866B-40E75F07E74E}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{AA4F8F9A-8CD4-49CD-9823-A6704AF53CFA}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="120">
       <calculatedColumnFormula>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{172D518F-9977-49EF-9C07-0E6FD02D88CA}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="61">
+    <tableColumn id="5" xr3:uid="{172D518F-9977-49EF-9C07-0E6FD02D88CA}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118">
       <calculatedColumnFormula>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7831D5D3-2AA8-48A3-96CD-EAB79897DC40}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="138" totalsRowDxfId="60">
+    <tableColumn id="6" xr3:uid="{7831D5D3-2AA8-48A3-96CD-EAB79897DC40}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula>Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Charge Révisée (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{74ECFF7A-2D0D-4B5C-A12C-1B6AA1B7BBD2}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="137" totalsRowDxfId="59">
+    <tableColumn id="7" xr3:uid="{74ECFF7A-2D0D-4B5C-A12C-1B6AA1B7BBD2}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="114">
       <calculatedColumnFormula>IF(Octobre[[#This Row],[Qui]]="Chef de projet","35",IF(Octobre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Octobre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Octobre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Octobre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D31AD353-12F9-4F92-882A-E2476051EC11}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="58">
+    <tableColumn id="9" xr3:uid="{D31AD353-12F9-4F92-882A-E2476051EC11}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112">
       <calculatedColumnFormula>Octobre[[#This Row],[Charge Initiale (h)]]*Octobre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8AB51B16-EC76-4305-83E7-912BC582C3EB}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="57">
+    <tableColumn id="8" xr3:uid="{8AB51B16-EC76-4305-83E7-912BC582C3EB}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110">
       <calculatedColumnFormula>Octobre[[#This Row],[Charge Révisée (h)]]*Octobre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{41EA0F58-44F3-472C-8311-3B965AB492C7}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="56">
+    <tableColumn id="12" xr3:uid="{41EA0F58-44F3-472C-8311-3B965AB492C7}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108">
       <calculatedColumnFormula>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9627,35 +9627,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{94544CE7-6650-43AB-8D25-B3FF65DD924F}" name="Novembre" displayName="Novembre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{94544CE7-6650-43AB-8D25-B3FF65DD924F}" name="Novembre" displayName="Novembre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="107" headerRowBorderDxfId="106" tableBorderDxfId="105">
   <autoFilter ref="B1:M20" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D205FF40-E8D8-44BA-BF53-7A460550A219}" name="Tâche" totalsRowLabel="Total" dataDxfId="132" totalsRowDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{4C376DE5-AED0-4D8A-9E02-F7CF49BC7B66}" name="Qui" dataDxfId="131" totalsRowDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{277F8DB9-F6F8-437D-A995-ACCB63C5395B}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="130" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{D4570761-250E-4A35-9365-1CE4AC2DE1AB}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="129" totalsRowDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{DF01A23B-EF93-42B7-82FB-E0F30D00A15A}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="128" totalsRowDxfId="49">
+    <tableColumn id="1" xr3:uid="{D205FF40-E8D8-44BA-BF53-7A460550A219}" name="Tâche" totalsRowLabel="Total" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="11" xr3:uid="{4C376DE5-AED0-4D8A-9E02-F7CF49BC7B66}" name="Qui" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{277F8DB9-F6F8-437D-A995-ACCB63C5395B}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{D4570761-250E-4A35-9365-1CE4AC2DE1AB}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{DF01A23B-EF93-42B7-82FB-E0F30D00A15A}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0D6CE87B-01F8-4E05-8B91-EF6FC4F6BFAB}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="48">
+    <tableColumn id="4" xr3:uid="{0D6CE87B-01F8-4E05-8B91-EF6FC4F6BFAB}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AF83D2C7-799D-40E9-B23D-64ED4A625204}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="47">
+    <tableColumn id="5" xr3:uid="{AF83D2C7-799D-40E9-B23D-64ED4A625204}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91">
       <calculatedColumnFormula>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FFDDD085-2593-40D0-A0CE-1B2B440251DF}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="46">
+    <tableColumn id="6" xr3:uid="{FFDDD085-2593-40D0-A0CE-1B2B440251DF}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="89">
       <calculatedColumnFormula>Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Charge Révisée (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E9806D3C-1F46-45D7-9F0C-91700D604697}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="45">
+    <tableColumn id="7" xr3:uid="{E9806D3C-1F46-45D7-9F0C-91700D604697}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87">
       <calculatedColumnFormula>IF(Novembre[[#This Row],[Qui]]="Chef de projet","35",IF(Novembre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{74E78CCF-D6DE-4B95-96C1-81F4B8599DEC}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="44">
+    <tableColumn id="9" xr3:uid="{74E78CCF-D6DE-4B95-96C1-81F4B8599DEC}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="85">
       <calculatedColumnFormula>Novembre[[#This Row],[Charge Initiale (h)]]*Novembre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E11BAC88-1C69-46B9-B099-F647E399DCD2}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="43">
+    <tableColumn id="8" xr3:uid="{E11BAC88-1C69-46B9-B099-F647E399DCD2}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>Novembre[[#This Row],[Charge Révisée (h)]]*Novembre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{424571F4-6EA2-484E-9642-3B80B1DB67FB}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="42">
+    <tableColumn id="12" xr3:uid="{424571F4-6EA2-484E-9642-3B80B1DB67FB}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9664,35 +9664,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8DE694-F99E-486D-92C5-F57F633BA7BC}" name="Décembre" displayName="Décembre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A8DE694-F99E-486D-92C5-F57F633BA7BC}" name="Décembre" displayName="Décembre" ref="B1:M21" totalsRowCount="1" headerRowDxfId="80" headerRowBorderDxfId="79" tableBorderDxfId="78">
   <autoFilter ref="B1:M20" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{34F7A11D-5056-4364-A7F1-9035968EECA5}" name="Tâche" totalsRowLabel="Total" dataDxfId="119" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{580D654B-6A46-4EDD-AC29-96DAB372A316}" name="Qui" dataDxfId="118" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{700216BD-3AD4-4DC8-AC75-F571E56C0E16}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{95ECA186-F8B1-4A87-A89A-DB5264F68525}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="116" totalsRowDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{3F2117F4-7B2A-45B3-8B60-B2536DD0275B}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="115" totalsRowDxfId="35">
+    <tableColumn id="1" xr3:uid="{34F7A11D-5056-4364-A7F1-9035968EECA5}" name="Tâche" totalsRowLabel="Total" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{580D654B-6A46-4EDD-AC29-96DAB372A316}" name="Qui" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{700216BD-3AD4-4DC8-AC75-F571E56C0E16}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{95ECA186-F8B1-4A87-A89A-DB5264F68525}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{3F2117F4-7B2A-45B3-8B60-B2536DD0275B}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EC51F5BC-E25E-4528-B05A-ED5881CCB44F}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="34">
+    <tableColumn id="4" xr3:uid="{EC51F5BC-E25E-4528-B05A-ED5881CCB44F}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{71FE84E2-7632-4D6A-A6CC-FA5F5F7E9577}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="33">
+    <tableColumn id="5" xr3:uid="{71FE84E2-7632-4D6A-A6CC-FA5F5F7E9577}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CEF7B2DE-4188-4F5F-8C1E-586D3913D5B3}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="32">
+    <tableColumn id="6" xr3:uid="{CEF7B2DE-4188-4F5F-8C1E-586D3913D5B3}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Charge Révisée (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{F376131A-CCA0-4DB2-99E8-1300DA46DDD2}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="31">
+    <tableColumn id="7" xr3:uid="{F376131A-CCA0-4DB2-99E8-1300DA46DDD2}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>IF(Décembre[[#This Row],[Qui]]="Chef de projet","35",IF(Décembre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Décembre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Décembre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Décembre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{264E2A4F-E75B-4A1C-AE28-EA901CFA2B98}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="30">
+    <tableColumn id="9" xr3:uid="{264E2A4F-E75B-4A1C-AE28-EA901CFA2B98}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>Décembre[[#This Row],[Charge Initiale (h)]]*Décembre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1D965882-497B-4901-82B7-C13D0472B00A}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="29">
+    <tableColumn id="8" xr3:uid="{1D965882-497B-4901-82B7-C13D0472B00A}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>Décembre[[#This Row],[Charge Révisée (h)]]*Décembre[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{104F4440-7C99-4867-8813-8B929E08C741}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="28">
+    <tableColumn id="12" xr3:uid="{104F4440-7C99-4867-8813-8B929E08C741}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9701,35 +9701,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{61E85A28-8134-4528-914A-0376609A57F6}" name="Janvier" displayName="Janvier" ref="B1:M21" totalsRowCount="1" headerRowDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{61E85A28-8134-4528-914A-0376609A57F6}" name="Janvier" displayName="Janvier" ref="B1:M21" totalsRowCount="1" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="B1:M20" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{21E1BB41-371F-4F84-9E74-68CBDA5B6B79}" name="Tâche" totalsRowLabel="Total" dataDxfId="106" totalsRowDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{0EFAE39E-FE42-4485-A0CC-361AB531B659}" name="Qui" dataDxfId="105" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F34DAC5B-41AE-4895-B291-6EF22C9AB654}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="104" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{5CC4BEA2-1A76-4D8B-994F-59A5C2C0800D}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{57B546D3-AD1F-4218-A0F8-6F2C028599FA}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{21E1BB41-371F-4F84-9E74-68CBDA5B6B79}" name="Tâche" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{0EFAE39E-FE42-4485-A0CC-361AB531B659}" name="Qui" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{F34DAC5B-41AE-4895-B291-6EF22C9AB654}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{5CC4BEA2-1A76-4D8B-994F-59A5C2C0800D}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{57B546D3-AD1F-4218-A0F8-6F2C028599FA}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EC347690-3560-41DF-9EC4-7EF552B0FFC5}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{EC347690-3560-41DF-9EC4-7EF552B0FFC5}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06572344-BBF8-49DC-9A79-5EA9B349FF28}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{06572344-BBF8-49DC-9A79-5EA9B349FF28}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{06F8759D-A3BB-4DF1-A30D-D97B02D24344}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="18">
+    <tableColumn id="6" xr3:uid="{06F8759D-A3BB-4DF1-A30D-D97B02D24344}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Charge Révisée (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{52268DE5-920D-4FFF-81CF-F81F1EBF72CA}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="17">
+    <tableColumn id="7" xr3:uid="{52268DE5-920D-4FFF-81CF-F81F1EBF72CA}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>IF(Janvier[[#This Row],[Qui]]="Chef de projet","35",IF(Janvier[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Janvier[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Janvier[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Janvier[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0DC2B8A-B8E3-4427-812E-76B666543A75}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="16">
+    <tableColumn id="9" xr3:uid="{E0DC2B8A-B8E3-4427-812E-76B666543A75}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>Janvier[[#This Row],[Charge Initiale (h)]]*Janvier[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{FE268A68-CCF8-4FD5-A6F2-E1BD8C050794}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="15">
+    <tableColumn id="8" xr3:uid="{FE268A68-CCF8-4FD5-A6F2-E1BD8C050794}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>Janvier[[#This Row],[Charge Révisée (h)]]*Janvier[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{EF777645-54A6-4A27-9FD9-A328DEEDAA1F}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{EF777645-54A6-4A27-9FD9-A328DEEDAA1F}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9738,35 +9738,35 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AB8EACC1-ABFA-47FD-85C4-24F0E4952741}" name="Février" displayName="Février" ref="B1:M21" totalsRowCount="1" headerRowDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{AB8EACC1-ABFA-47FD-85C4-24F0E4952741}" name="Février" displayName="Février" ref="B1:M21" totalsRowCount="1" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="B1:M20" xr:uid="{6F57EBBF-86EB-4137-B57F-8A0217F9ADC6}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4B7BA25-41B7-4D15-98CC-737E33EE0578}" name="Tâche" totalsRowLabel="Total" dataDxfId="93" totalsRowDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{48F011C1-C37A-4FAC-B2A0-6BBA0CA88E37}" name="Qui" dataDxfId="92" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E5313FC5-41D3-4C17-9AE2-86DF05CA6D08}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{CAF1AA6B-05C6-4D0C-A44D-D04BC75B94EA}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="90" totalsRowDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{D19418ED-BF24-4CE0-A47A-5A0F594964B5}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{A4B7BA25-41B7-4D15-98CC-737E33EE0578}" name="Tâche" totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{48F011C1-C37A-4FAC-B2A0-6BBA0CA88E37}" name="Qui" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E5313FC5-41D3-4C17-9AE2-86DF05CA6D08}" name="Charge Initiale (h)" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{CAF1AA6B-05C6-4D0C-A44D-D04BC75B94EA}" name="Temps Passé Période (h)" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{D19418ED-BF24-4CE0-A47A-5A0F594964B5}" name="Temps Passé Cumul (h)" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{89F7D8F8-08EB-4F6F-A272-28DF18C527F4}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="6">
+    <tableColumn id="4" xr3:uid="{89F7D8F8-08EB-4F6F-A272-28DF18C527F4}" name="Reste à Passer (h)" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EB333233-16D4-4D11-9593-E6B92C48B691}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="5">
+    <tableColumn id="5" xr3:uid="{EB333233-16D4-4D11-9593-E6B92C48B691}" name="Charge Révisée (h)" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0FD7A7BE-2E27-4830-AD7B-43C8B284DBCC}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="4">
+    <tableColumn id="6" xr3:uid="{0FD7A7BE-2E27-4830-AD7B-43C8B284DBCC}" name="Écart de Charge (h)" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Charge Révisée (h)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{27B82858-660A-46F8-AEDB-C38E1F404D5C}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="3">
+    <tableColumn id="7" xr3:uid="{27B82858-660A-46F8-AEDB-C38E1F404D5C}" name="Prix de Revient Unitaire (€)" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Février[[#This Row],[Qui]]="Chef de projet","35",IF(Février[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Février[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Février[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Février[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9A501B0A-B620-4EEB-825B-E62FB447A220}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{9A501B0A-B620-4EEB-825B-E62FB447A220}" name="Coût Initial (€)" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Février[[#This Row],[Charge Initiale (h)]]*Février[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B281454A-DABE-4046-99DD-10B100CADFBC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{B281454A-DABE-4046-99DD-10B100CADFBC}" name="Coût Révisé (€)" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Février[[#This Row],[Charge Révisée (h)]]*Février[[#This Row],[Prix de Revient Unitaire (€)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C2705483-9E88-43DD-9748-FB436E69AA1A}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="0">
+    <tableColumn id="12" xr3:uid="{C2705483-9E88-43DD-9748-FB436E69AA1A}" name="Coût Réel (€)" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10181,7 +10181,7 @@
         <v>385</v>
       </c>
       <c r="I5" s="57">
-        <f t="shared" ref="I4:I9" si="0">IFERROR((E5+F5)/D5,0)</f>
+        <f t="shared" ref="I5:I9" si="0">IFERROR((E5+F5)/D5,0)</f>
         <v>0.13541666666666666</v>
       </c>
     </row>
@@ -10321,7 +10321,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -11484,7 +11484,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -12649,7 +12649,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -13814,7 +13814,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -14979,7 +14979,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -16144,7 +16144,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -17309,7 +17309,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
@@ -17320,6 +17320,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF9263497045A640A8CB558901A6A6C8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="74a64c617853225d9915ce5c2407eb7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3823e97-3c8f-42af-9aa3-4a85adc1b986" xmlns:ns3="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2245405c225123f82bf2fff4f792a1eb" ns2:_="" ns3:_="">
     <xsd:import namespace="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
@@ -17514,27 +17534,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B8A2DB-F0C8-46F4-AC39-BA8B306E6417}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17551,29 +17576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01 - TRAVAIL/00 - Suivi/SPER.xlsx
+++ b/01 - TRAVAIL/00 - Suivi/SPER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Études\POLYTECH\5A\PRI\01 - TRAVAIL\00 - Suivi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF59C9B-7728-4FE0-8328-045636AB0149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E494C70-BF6D-4462-9C34-BAEFCF4C8227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6542,22 +6542,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.10416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>0.30927835051546393</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>0.30927835051546393</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>0.30927835051546393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>0.30927835051546393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>0.30927835051546393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6951,19 +6951,19 @@
                   <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>385</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>385</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>385</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>385</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>385</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7576,7 +7576,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Synthèse!$F$4:$F$9</c:f>
+              <c:f>Synthèse!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7584,19 +7584,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9445,7 +9445,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6745</xdr:rowOff>
@@ -9487,7 +9487,7 @@
       <xdr:rowOff>16271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
@@ -10078,7 +10078,7 @@
   <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10087,8 +10087,8 @@
     <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.53125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.3984375" bestFit="1" customWidth="1"/>
@@ -10104,10 +10104,10 @@
         <v>58</v>
       </c>
       <c r="E3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>59</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>60</v>
       </c>
       <c r="G3" s="66" t="s">
         <v>61</v>
@@ -10132,12 +10132,12 @@
         <v>96</v>
       </c>
       <c r="E4" s="63">
+        <f>-Septembre[[#Totals],[Écart de Charge (h)]]</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="63">
         <f>Septembre[[#Totals],[Temps Passé Cumul (h)]]</f>
         <v>10</v>
-      </c>
-      <c r="F4" s="63">
-        <f>-Septembre[[#Totals],[Écart de Charge (h)]]</f>
-        <v>2</v>
       </c>
       <c r="G4" s="63">
         <f>Septembre[[#Totals],[Coût Initial (€)]]</f>
@@ -10148,8 +10148,8 @@
         <v>350</v>
       </c>
       <c r="I4" s="64">
-        <f>IFERROR((E4+F4)/D4,0)</f>
-        <v>0.125</v>
+        <f>IFERROR(F4/D4,0)</f>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
@@ -10162,15 +10162,15 @@
       </c>
       <c r="D5" s="2">
         <f>Octobre[[#Totals],[Charge Révisée (h)]]</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
+        <f>-Octobre[[#Totals],[Écart de Charge (h)]]</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
         <f>Octobre[[#Totals],[Temps Passé Cumul (h)]]</f>
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <f>-Octobre[[#Totals],[Écart de Charge (h)]]</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
         <f>Octobre[[#Totals],[Coût Initial (€)]]</f>
@@ -10178,11 +10178,11 @@
       </c>
       <c r="H5" s="54">
         <f>Octobre[[#Totals],[Coût Réel (€)]]</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="I5" s="57">
-        <f t="shared" ref="I5:I9" si="0">IFERROR((E5+F5)/D5,0)</f>
-        <v>0.13541666666666666</v>
+        <f t="shared" ref="I5:I9" si="0">IFERROR(F5/D5,0)</f>
+        <v>0.30927835051546393</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
@@ -10195,15 +10195,15 @@
       </c>
       <c r="D6" s="2">
         <f>Novembre[[#Totals],[Charge Révisée (h)]]</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2">
+        <f>-Novembre[[#Totals],[Écart de Charge (h)]]</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
         <f>Novembre[[#Totals],[Temps Passé Cumul (h)]]</f>
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <f>-Novembre[[#Totals],[Écart de Charge (h)]]</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2">
         <f>Novembre[[#Totals],[Coût Initial (€)]]</f>
@@ -10211,11 +10211,11 @@
       </c>
       <c r="H6" s="54">
         <f>Novembre[[#Totals],[Coût Réel (€)]]</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="I6" s="57">
         <f t="shared" si="0"/>
-        <v>0.13541666666666666</v>
+        <v>0.30927835051546393</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
@@ -10228,15 +10228,15 @@
       </c>
       <c r="D7" s="2">
         <f>Décembre[[#Totals],[Charge Révisée (h)]]</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2">
+        <f>-Décembre[[#Totals],[Écart de Charge (h)]]</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
         <f>Décembre[[#Totals],[Temps Passé Cumul (h)]]</f>
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <f>-Décembre[[#Totals],[Écart de Charge (h)]]</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
         <f>Décembre[[#Totals],[Coût Initial (€)]]</f>
@@ -10244,11 +10244,11 @@
       </c>
       <c r="H7" s="54">
         <f>Décembre[[#Totals],[Coût Réel (€)]]</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="I7" s="57">
         <f t="shared" si="0"/>
-        <v>0.13541666666666666</v>
+        <v>0.30927835051546393</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
@@ -10261,15 +10261,15 @@
       </c>
       <c r="D8" s="2">
         <f>Janvier[[#Totals],[Charge Révisée (h)]]</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
+        <f>-Janvier[[#Totals],[Écart de Charge (h)]]</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
         <f>Janvier[[#Totals],[Temps Passé Cumul (h)]]</f>
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <f>-Janvier[[#Totals],[Écart de Charge (h)]]</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
         <f>Janvier[[#Totals],[Coût Initial (€)]]</f>
@@ -10277,11 +10277,11 @@
       </c>
       <c r="H8" s="54">
         <f>Janvier[[#Totals],[Coût Réel (€)]]</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="I8" s="57">
         <f t="shared" si="0"/>
-        <v>0.13541666666666666</v>
+        <v>0.30927835051546393</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -10294,15 +10294,15 @@
       </c>
       <c r="D9" s="53">
         <f>Février[[#Totals],[Charge Révisée (h)]]</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="53">
+        <f>-Février[[#Totals],[Écart de Charge (h)]]</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="53">
         <f>Février[[#Totals],[Temps Passé Cumul (h)]]</f>
-        <v>11</v>
-      </c>
-      <c r="F9" s="53">
-        <f>-Février[[#Totals],[Écart de Charge (h)]]</f>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G9" s="53">
         <f>Février[[#Totals],[Coût Initial (€)]]</f>
@@ -10310,11 +10310,11 @@
       </c>
       <c r="H9" s="55">
         <f>Février[[#Totals],[Coût Réel (€)]]</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="I9" s="58">
         <f t="shared" si="0"/>
-        <v>0.13541666666666666</v>
+        <v>0.30927835051546393</v>
       </c>
     </row>
   </sheetData>
@@ -11581,11 +11581,11 @@
         <v>5</v>
       </c>
       <c r="E2" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="22">
         <f>Octobre[[#This Row],[Temps Passé Période (h)]]+Septembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22">
         <f>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
@@ -11593,11 +11593,11 @@
       </c>
       <c r="H2" s="22">
         <f>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="22">
         <f>Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Charge Révisée (h)]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="22" t="str">
         <f>IF(Octobre[[#This Row],[Qui]]="Chef de projet","35",IF(Octobre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Octobre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Octobre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Octobre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -11609,11 +11609,11 @@
       </c>
       <c r="L2" s="22">
         <f>Octobre[[#This Row],[Charge Révisée (h)]]*Octobre[[#This Row],[Prix de Revient Unitaire (€)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M2" s="22">
         <f>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>28</v>
@@ -11631,15 +11631,15 @@
         <v>5</v>
       </c>
       <c r="E3" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="22">
         <f>Octobre[[#This Row],[Temps Passé Période (h)]]+Septembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="22">
         <f>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="22">
         <f>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</f>
@@ -11663,10 +11663,10 @@
       </c>
       <c r="M3" s="22">
         <f>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -11731,15 +11731,15 @@
         <v>2</v>
       </c>
       <c r="E5" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="22">
         <f>Octobre[[#This Row],[Temps Passé Période (h)]]+Septembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
         <f>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</f>
@@ -11763,10 +11763,10 @@
       </c>
       <c r="M5" s="22">
         <f>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -11783,15 +11783,15 @@
         <v>8</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4">
         <f>Octobre[[#This Row],[Temps Passé Période (h)]]+Septembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</f>
@@ -11815,10 +11815,10 @@
       </c>
       <c r="M6" s="4">
         <f>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -11833,15 +11833,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
         <f>Octobre[[#This Row],[Temps Passé Période (h)]]+Septembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</f>
@@ -11865,10 +11865,10 @@
       </c>
       <c r="M7" s="4">
         <f>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -11883,15 +11883,15 @@
         <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="4">
         <f>Octobre[[#This Row],[Temps Passé Période (h)]]+Septembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
         <f>MAX(Octobre[[#This Row],[Charge Initiale (h)]]-Octobre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f>Octobre[[#This Row],[Temps Passé Cumul (h)]]+Octobre[[#This Row],[Reste à Passer (h)]]</f>
@@ -11915,10 +11915,10 @@
       </c>
       <c r="M8" s="4">
         <f>Octobre[[#This Row],[Prix de Revient Unitaire (€)]]*Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -12547,23 +12547,23 @@
       </c>
       <c r="E21" s="15">
         <f>SUBTOTAL(109,Octobre[Temps Passé Période (h)])</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F21" s="15">
         <f>SUBTOTAL(109,Octobre[Temps Passé Cumul (h)])</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15">
         <f>SUBTOTAL(109,Octobre[Reste à Passer (h)])</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H21" s="15">
         <f>SUBTOTAL(109,Octobre[Charge Révisée (h)])</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="15">
         <f>SUBTOTAL(109,Octobre[Écart de Charge (h)])</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="15">
         <f>SUBTOTAL(109,Octobre[Prix de Revient Unitaire (€)])</f>
@@ -12575,11 +12575,11 @@
       </c>
       <c r="L21" s="16">
         <f>SUBTOTAL(109,Octobre[Coût Révisé (€)])</f>
-        <v>3360</v>
+        <v>3395</v>
       </c>
       <c r="M21" s="15">
         <f>SUBTOTAL(109,Octobre[Coût Réel (€)])</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="N21" s="17"/>
     </row>
@@ -12639,7 +12639,7 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A13:A14"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20" xr:uid="{3CF902A2-AA41-422F-9FCE-C4D9D5F29CCF}">
       <formula1>$M$24:$M$25</formula1>
     </dataValidation>
@@ -12750,7 +12750,7 @@
       </c>
       <c r="F2" s="22">
         <f>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22">
         <f>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
@@ -12758,11 +12758,11 @@
       </c>
       <c r="H2" s="22">
         <f>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="22">
         <f>Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Charge Révisée (h)]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="22" t="str">
         <f>IF(Novembre[[#This Row],[Qui]]="Chef de projet","35",IF(Novembre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Novembre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Novembre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Novembre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -12774,11 +12774,11 @@
       </c>
       <c r="L2" s="22">
         <f>Novembre[[#This Row],[Charge Révisée (h)]]*Novembre[[#This Row],[Prix de Revient Unitaire (€)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M2" s="22">
         <f>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>28</v>
@@ -12800,11 +12800,11 @@
       </c>
       <c r="F3" s="22">
         <f>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="22">
         <f>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="22">
         <f>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -12828,10 +12828,10 @@
       </c>
       <c r="M3" s="22">
         <f>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -12900,11 +12900,11 @@
       </c>
       <c r="F5" s="22">
         <f>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
         <f>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -12928,10 +12928,10 @@
       </c>
       <c r="M5" s="22">
         <f>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -12952,11 +12952,11 @@
       </c>
       <c r="F6" s="4">
         <f>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -12980,10 +12980,10 @@
       </c>
       <c r="M6" s="4">
         <f>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
@@ -13002,11 +13002,11 @@
       </c>
       <c r="F7" s="4">
         <f>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -13030,10 +13030,10 @@
       </c>
       <c r="M7" s="4">
         <f>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
@@ -13052,11 +13052,11 @@
       </c>
       <c r="F8" s="4">
         <f>Novembre[[#This Row],[Temps Passé Période (h)]]+Octobre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
         <f>MAX(Novembre[[#This Row],[Charge Initiale (h)]]-Novembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f>Novembre[[#This Row],[Temps Passé Cumul (h)]]+Novembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -13080,10 +13080,10 @@
       </c>
       <c r="M8" s="4">
         <f>Novembre[[#This Row],[Prix de Revient Unitaire (€)]]*Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -13716,19 +13716,19 @@
       </c>
       <c r="F21" s="15">
         <f>SUBTOTAL(109,Novembre[Temps Passé Cumul (h)])</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15">
         <f>SUBTOTAL(109,Novembre[Reste à Passer (h)])</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H21" s="15">
         <f>SUBTOTAL(109,Novembre[Charge Révisée (h)])</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="15">
         <f>SUBTOTAL(109,Novembre[Écart de Charge (h)])</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="15">
         <f>SUBTOTAL(109,Novembre[Prix de Revient Unitaire (€)])</f>
@@ -13740,11 +13740,11 @@
       </c>
       <c r="L21" s="16">
         <f>SUBTOTAL(109,Novembre[Coût Révisé (€)])</f>
-        <v>3360</v>
+        <v>3395</v>
       </c>
       <c r="M21" s="15">
         <f>SUBTOTAL(109,Novembre[Coût Réel (€)])</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="N21" s="17"/>
     </row>
@@ -13804,7 +13804,7 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A13:A14"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{85D63007-F628-426F-8751-2AE10528A7C2}">
       <formula1>$B$24:$B$24</formula1>
     </dataValidation>
@@ -13915,7 +13915,7 @@
       </c>
       <c r="F2" s="22">
         <f>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22">
         <f>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
@@ -13923,11 +13923,11 @@
       </c>
       <c r="H2" s="22">
         <f>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="22">
         <f>Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Charge Révisée (h)]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="22" t="str">
         <f>IF(Décembre[[#This Row],[Qui]]="Chef de projet","35",IF(Décembre[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Décembre[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Décembre[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Décembre[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -13939,11 +13939,11 @@
       </c>
       <c r="L2" s="22">
         <f>Décembre[[#This Row],[Charge Révisée (h)]]*Décembre[[#This Row],[Prix de Revient Unitaire (€)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M2" s="22">
         <f>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>28</v>
@@ -13965,11 +13965,11 @@
       </c>
       <c r="F3" s="22">
         <f>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="22">
         <f>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="22">
         <f>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -13993,7 +13993,7 @@
       </c>
       <c r="M3" s="22">
         <f>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>29</v>
@@ -14065,11 +14065,11 @@
       </c>
       <c r="F5" s="22">
         <f>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
         <f>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="M5" s="22">
         <f>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>29</v>
@@ -14117,11 +14117,11 @@
       </c>
       <c r="F6" s="4">
         <f>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="M6" s="4">
         <f>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>29</v>
@@ -14167,11 +14167,11 @@
       </c>
       <c r="F7" s="4">
         <f>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -14195,7 +14195,7 @@
       </c>
       <c r="M7" s="4">
         <f>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>29</v>
@@ -14217,11 +14217,11 @@
       </c>
       <c r="F8" s="4">
         <f>Décembre[[#This Row],[Temps Passé Période (h)]]+Novembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
         <f>MAX(Décembre[[#This Row],[Charge Initiale (h)]]-Décembre[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f>Décembre[[#This Row],[Temps Passé Cumul (h)]]+Décembre[[#This Row],[Reste à Passer (h)]]</f>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="M8" s="4">
         <f>Décembre[[#This Row],[Prix de Revient Unitaire (€)]]*Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>29</v>
@@ -14881,19 +14881,19 @@
       </c>
       <c r="F21" s="15">
         <f>SUBTOTAL(109,Décembre[Temps Passé Cumul (h)])</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15">
         <f>SUBTOTAL(109,Décembre[Reste à Passer (h)])</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H21" s="15">
         <f>SUBTOTAL(109,Décembre[Charge Révisée (h)])</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="15">
         <f>SUBTOTAL(109,Décembre[Écart de Charge (h)])</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="15">
         <f>SUBTOTAL(109,Décembre[Prix de Revient Unitaire (€)])</f>
@@ -14905,11 +14905,11 @@
       </c>
       <c r="L21" s="16">
         <f>SUBTOTAL(109,Décembre[Coût Révisé (€)])</f>
-        <v>3360</v>
+        <v>3395</v>
       </c>
       <c r="M21" s="15">
         <f>SUBTOTAL(109,Décembre[Coût Réel (€)])</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="N21" s="17"/>
     </row>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="F2" s="22">
         <f>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22">
         <f>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
@@ -15088,11 +15088,11 @@
       </c>
       <c r="H2" s="22">
         <f>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="22">
         <f>Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Charge Révisée (h)]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="22" t="str">
         <f>IF(Janvier[[#This Row],[Qui]]="Chef de projet","35",IF(Janvier[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Janvier[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Janvier[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Janvier[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -15104,11 +15104,11 @@
       </c>
       <c r="L2" s="22">
         <f>Janvier[[#This Row],[Charge Révisée (h)]]*Janvier[[#This Row],[Prix de Revient Unitaire (€)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M2" s="22">
         <f>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>28</v>
@@ -15130,11 +15130,11 @@
       </c>
       <c r="F3" s="22">
         <f>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="22">
         <f>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="22">
         <f>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</f>
@@ -15158,7 +15158,7 @@
       </c>
       <c r="M3" s="22">
         <f>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>29</v>
@@ -15230,11 +15230,11 @@
       </c>
       <c r="F5" s="22">
         <f>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
         <f>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</f>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="M5" s="22">
         <f>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>29</v>
@@ -15282,11 +15282,11 @@
       </c>
       <c r="F6" s="4">
         <f>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</f>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="M6" s="4">
         <f>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>29</v>
@@ -15332,11 +15332,11 @@
       </c>
       <c r="F7" s="4">
         <f>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</f>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="M7" s="4">
         <f>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>29</v>
@@ -15382,11 +15382,11 @@
       </c>
       <c r="F8" s="4">
         <f>Janvier[[#This Row],[Temps Passé Période (h)]]+Décembre[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
         <f>MAX(Janvier[[#This Row],[Charge Initiale (h)]]-Janvier[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f>Janvier[[#This Row],[Temps Passé Cumul (h)]]+Janvier[[#This Row],[Reste à Passer (h)]]</f>
@@ -15410,7 +15410,7 @@
       </c>
       <c r="M8" s="4">
         <f>Janvier[[#This Row],[Prix de Revient Unitaire (€)]]*Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>29</v>
@@ -16046,19 +16046,19 @@
       </c>
       <c r="F21" s="15">
         <f>SUBTOTAL(109,Janvier[Temps Passé Cumul (h)])</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15">
         <f>SUBTOTAL(109,Janvier[Reste à Passer (h)])</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H21" s="15">
         <f>SUBTOTAL(109,Janvier[Charge Révisée (h)])</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="15">
         <f>SUBTOTAL(109,Janvier[Écart de Charge (h)])</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="15">
         <f>SUBTOTAL(109,Janvier[Prix de Revient Unitaire (€)])</f>
@@ -16070,11 +16070,11 @@
       </c>
       <c r="L21" s="16">
         <f>SUBTOTAL(109,Janvier[Coût Révisé (€)])</f>
-        <v>3360</v>
+        <v>3395</v>
       </c>
       <c r="M21" s="15">
         <f>SUBTOTAL(109,Janvier[Coût Réel (€)])</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="N21" s="17"/>
     </row>
@@ -16245,7 +16245,7 @@
       </c>
       <c r="F2" s="22">
         <f>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="22">
         <f>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
@@ -16253,11 +16253,11 @@
       </c>
       <c r="H2" s="22">
         <f>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="22">
         <f>Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Charge Révisée (h)]]</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="22" t="str">
         <f>IF(Février[[#This Row],[Qui]]="Chef de projet","35",IF(Février[[#This Row],[Qui]]="Ingénieur Electronique","32",IF(Février[[#This Row],[Qui]]="Ingénieur qualité","36",IF(Février[[#This Row],[Qui]]="Ingénieur Développement",30,IF(Février[[#This Row],[Qui]]="Ingénieur Mécanique",34,"")))))</f>
@@ -16269,11 +16269,11 @@
       </c>
       <c r="L2" s="22">
         <f>Février[[#This Row],[Charge Révisée (h)]]*Février[[#This Row],[Prix de Revient Unitaire (€)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M2" s="22">
         <f>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>28</v>
@@ -16295,11 +16295,11 @@
       </c>
       <c r="F3" s="22">
         <f>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="22">
         <f>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" s="22">
         <f>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</f>
@@ -16323,7 +16323,7 @@
       </c>
       <c r="M3" s="22">
         <f>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>29</v>
@@ -16395,11 +16395,11 @@
       </c>
       <c r="F5" s="22">
         <f>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="22">
         <f>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</f>
@@ -16423,7 +16423,7 @@
       </c>
       <c r="M5" s="22">
         <f>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N5" s="23" t="s">
         <v>29</v>
@@ -16447,11 +16447,11 @@
       </c>
       <c r="F6" s="4">
         <f>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</f>
@@ -16475,7 +16475,7 @@
       </c>
       <c r="M6" s="4">
         <f>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>29</v>
@@ -16497,11 +16497,11 @@
       </c>
       <c r="F7" s="4">
         <f>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4">
         <f>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</f>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="M7" s="4">
         <f>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>29</v>
@@ -16547,11 +16547,11 @@
       </c>
       <c r="F8" s="4">
         <f>Février[[#This Row],[Temps Passé Période (h)]]+Janvier[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
         <f>MAX(Février[[#This Row],[Charge Initiale (h)]]-Février[[#This Row],[Temps Passé Cumul (h)]], 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f>Février[[#This Row],[Temps Passé Cumul (h)]]+Février[[#This Row],[Reste à Passer (h)]]</f>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="M8" s="4">
         <f>Février[[#This Row],[Prix de Revient Unitaire (€)]]*Février[[#This Row],[Temps Passé Cumul (h)]]</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>29</v>
@@ -17211,19 +17211,19 @@
       </c>
       <c r="F21" s="15">
         <f>SUBTOTAL(109,Février[Temps Passé Cumul (h)])</f>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="15">
         <f>SUBTOTAL(109,Février[Reste à Passer (h)])</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H21" s="15">
         <f>SUBTOTAL(109,Février[Charge Révisée (h)])</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="15">
         <f>SUBTOTAL(109,Février[Écart de Charge (h)])</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="15">
         <f>SUBTOTAL(109,Février[Prix de Revient Unitaire (€)])</f>
@@ -17235,11 +17235,11 @@
       </c>
       <c r="L21" s="16">
         <f>SUBTOTAL(109,Février[Coût Révisé (€)])</f>
-        <v>3360</v>
+        <v>3395</v>
       </c>
       <c r="M21" s="15">
         <f>SUBTOTAL(109,Février[Coût Réel (€)])</f>
-        <v>385</v>
+        <v>1050</v>
       </c>
       <c r="N21" s="17"/>
     </row>
@@ -17320,26 +17320,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF9263497045A640A8CB558901A6A6C8" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="74a64c617853225d9915ce5c2407eb7f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3823e97-3c8f-42af-9aa3-4a85adc1b986" xmlns:ns3="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2245405c225123f82bf2fff4f792a1eb" ns2:_="" ns3:_="">
     <xsd:import namespace="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
@@ -17534,32 +17514,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1ee72ef8-afb7-4cab-8045-23d1f296c8e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f3823e97-3c8f-42af-9aa3-4a85adc1b986">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B8A2DB-F0C8-46F4-AC39-BA8B306E6417}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17576,4 +17551,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DD8CA4D-88CF-4FAD-9219-4EDEC6099C12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1ee72ef8-afb7-4cab-8045-23d1f296c8e3"/>
+    <ds:schemaRef ds:uri="f3823e97-3c8f-42af-9aa3-4a85adc1b986"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B8A56E-0482-4C34-B391-4275AF43D713}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>